--- a/TASK 3/TASK3.xlsx
+++ b/TASK 3/TASK3.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DATA ANALYST\TASK 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775529E5-A6DD-4D8D-A878-84D0905F6FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F478EB99-0802-42E9-A998-0D8596348031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4185" windowWidth="19515" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="130">
   <si>
     <t>Order ID</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>MX-2017-SC2044031</t>
+  </si>
+  <si>
+    <t>FK Sub category</t>
+  </si>
+  <si>
+    <t>FK sub Category</t>
   </si>
 </sst>
 </file>
@@ -923,13 +929,14 @@
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1251,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F214D1-22C1-46E1-A11B-114879DE5078}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,15 +1283,16 @@
     <col min="16" max="16" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>118</v>
       </c>
@@ -1337,27 +1345,12 @@
       <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1409,26 +1402,11 @@
       <c r="R2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="3">
-        <v>26.76</v>
-      </c>
-      <c r="U2" s="3">
-        <v>2</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>7.48</v>
-      </c>
-      <c r="X2" s="3">
-        <v>2.04</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1480,26 +1458,11 @@
       <c r="R3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="3">
-        <v>132.63999999999999</v>
-      </c>
-      <c r="U3" s="3">
-        <v>4</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
-        <v>35.76</v>
-      </c>
-      <c r="X3" s="3">
-        <v>6.2030000000000003</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1551,26 +1514,11 @@
       <c r="R4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3">
-        <v>12.94</v>
-      </c>
-      <c r="U4" s="3">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>1.02</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1.464</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1622,26 +1570,11 @@
       <c r="R5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="3">
-        <v>168.96</v>
-      </c>
-      <c r="U5" s="3">
-        <v>3</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>40.5</v>
-      </c>
-      <c r="X5" s="3">
-        <v>55.024000000000001</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1693,26 +1626,11 @@
       <c r="R6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="3">
-        <v>391.32</v>
-      </c>
-      <c r="U6" s="3">
-        <v>9</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>144.72</v>
-      </c>
-      <c r="X6" s="3">
-        <v>28.183</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1764,26 +1682,11 @@
       <c r="R7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="3">
-        <v>344.64</v>
-      </c>
-      <c r="U7" s="3">
-        <v>3</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>165.42</v>
-      </c>
-      <c r="X7" s="3">
-        <v>26.202000000000002</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1835,26 +1738,11 @@
       <c r="R8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="3">
-        <v>341.52</v>
-      </c>
-      <c r="U8" s="3">
-        <v>2</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>13.64</v>
-      </c>
-      <c r="X8" s="3">
-        <v>17.341000000000001</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1906,26 +1794,11 @@
       <c r="R9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="3">
-        <v>97.36</v>
-      </c>
-      <c r="U9" s="3">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>19.440000000000001</v>
-      </c>
-      <c r="X9" s="3">
-        <v>6.8630000000000004</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1977,23 +1850,238 @@
       <c r="R10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="3">
+      <c r="S10" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O14" s="3">
+        <v>26.76</v>
+      </c>
+      <c r="P14" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>7.48</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O15" s="3">
+        <v>132.63999999999999</v>
+      </c>
+      <c r="P15" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>35.76</v>
+      </c>
+      <c r="S15" s="3">
+        <v>6.2030000000000003</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O16" s="3">
+        <v>12.94</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1.464</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O17" s="3">
+        <v>168.96</v>
+      </c>
+      <c r="P17" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>40.5</v>
+      </c>
+      <c r="S17" s="3">
+        <v>55.024000000000001</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O18" s="3">
+        <v>391.32</v>
+      </c>
+      <c r="P18" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>144.72</v>
+      </c>
+      <c r="S18" s="3">
+        <v>28.183</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O19" s="3">
+        <v>344.64</v>
+      </c>
+      <c r="P19" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>165.42</v>
+      </c>
+      <c r="S19" s="3">
+        <v>26.202000000000002</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U19" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O20" s="3">
+        <v>341.52</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>13.64</v>
+      </c>
+      <c r="S20" s="3">
+        <v>17.341000000000001</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O21" s="3">
+        <v>97.36</v>
+      </c>
+      <c r="P21" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="S21" s="3">
+        <v>6.8630000000000004</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U21" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O22" s="3">
         <v>56.12</v>
       </c>
-      <c r="U10" s="3">
+      <c r="P22" s="3">
         <v>2</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="3">
+      <c r="R22" s="3">
         <v>21.32</v>
       </c>
-      <c r="X10" s="3">
+      <c r="S22" s="3">
         <v>4.1079999999999997</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="U22" s="6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TASK 3/TASK3.xlsx
+++ b/TASK 3/TASK3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DATA ANALYST\TASK 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DATA ANALYST\TASK3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F478EB99-0802-42E9-A998-0D8596348031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14613C73-B6B4-43DF-B767-A36F008516FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="130">
   <si>
     <t>Order ID</t>
   </si>
@@ -415,10 +415,10 @@
     <t>MX-2017-SC2044031</t>
   </si>
   <si>
-    <t>FK Sub category</t>
-  </si>
-  <si>
-    <t>FK sub Category</t>
+    <t>Product_Details_id</t>
+  </si>
+  <si>
+    <t>Sales_data_id</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,6 +750,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1258,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F214D1-22C1-46E1-A11B-114879DE5078}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,21 +1284,23 @@
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15.42578125" customWidth="1"/>
-    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>118</v>
       </c>
@@ -1332,25 +1340,51 @@
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="O1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="T1" s="1"/>
+      <c r="W1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1390,23 +1424,50 @@
       <c r="M2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="3">
+      <c r="W2" s="3">
         <v>1</v>
       </c>
+      <c r="X2" s="3">
+        <v>26.76</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>7.48</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1446,23 +1507,50 @@
       <c r="M3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="3">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="3">
+      <c r="W3" s="3">
         <v>2</v>
       </c>
+      <c r="X3" s="3">
+        <v>132.63999999999999</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>35.76</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>6.2030000000000003</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1502,23 +1590,50 @@
       <c r="M4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="N4" s="3">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>3</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="3">
+      <c r="W4" s="3">
         <v>3</v>
       </c>
+      <c r="X4" s="3">
+        <v>12.94</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1.464</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1558,23 +1673,50 @@
       <c r="M5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="N5" s="3">
+        <v>4</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>4</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="6">
+      <c r="W5" s="3">
         <v>4</v>
       </c>
+      <c r="X5" s="3">
+        <v>168.96</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>40.5</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>55.024000000000001</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1614,23 +1756,50 @@
       <c r="M6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="N6" s="3">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>5</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="6">
+      <c r="W6" s="3">
         <v>5</v>
       </c>
+      <c r="X6" s="3">
+        <v>391.32</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>144.72</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>28.183</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1670,23 +1839,50 @@
       <c r="M7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="N7" s="3">
+        <v>6</v>
+      </c>
+      <c r="O7" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>6</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="6">
+      <c r="W7" s="3">
         <v>6</v>
       </c>
+      <c r="X7" s="3">
+        <v>344.64</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>165.42</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>26.202000000000002</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1726,23 +1922,50 @@
       <c r="M8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="N8" s="3">
+        <v>7</v>
+      </c>
+      <c r="O8" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>7</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="6">
+      <c r="W8" s="3">
         <v>7</v>
       </c>
+      <c r="X8" s="3">
+        <v>341.52</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>13.64</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>17.341000000000001</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1782,23 +2005,50 @@
       <c r="M9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="N9" s="3">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>8</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="6">
+      <c r="W9" s="3">
         <v>8</v>
       </c>
+      <c r="X9" s="3">
+        <v>97.36</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>6.8630000000000004</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1838,250 +2088,47 @@
       <c r="M10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="N10" s="3">
+        <v>9</v>
+      </c>
+      <c r="O10" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>9</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="6">
+      <c r="W10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O14" s="3">
-        <v>26.76</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="X10" s="3">
+        <v>56.12</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Z10" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>7.48</v>
-      </c>
-      <c r="S14" s="3">
-        <v>2.04</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O15" s="3">
-        <v>132.63999999999999</v>
-      </c>
-      <c r="P15" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>35.76</v>
-      </c>
-      <c r="S15" s="3">
-        <v>6.2030000000000003</v>
-      </c>
-      <c r="T15" s="3" t="s">
+      <c r="AA10" s="3">
+        <v>21.32</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>4.1079999999999997</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="U15" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O16" s="3">
-        <v>12.94</v>
-      </c>
-      <c r="P16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1.02</v>
-      </c>
-      <c r="S16" s="3">
-        <v>1.464</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U16" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O17" s="3">
-        <v>168.96</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>40.5</v>
-      </c>
-      <c r="S17" s="3">
-        <v>55.024000000000001</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U17" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O18" s="3">
-        <v>391.32</v>
-      </c>
-      <c r="P18" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>144.72</v>
-      </c>
-      <c r="S18" s="3">
-        <v>28.183</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U18" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O19" s="3">
-        <v>344.64</v>
-      </c>
-      <c r="P19" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>165.42</v>
-      </c>
-      <c r="S19" s="3">
-        <v>26.202000000000002</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U19" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O20" s="3">
-        <v>341.52</v>
-      </c>
-      <c r="P20" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>13.64</v>
-      </c>
-      <c r="S20" s="3">
-        <v>17.341000000000001</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U20" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O21" s="3">
-        <v>97.36</v>
-      </c>
-      <c r="P21" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>19.440000000000001</v>
-      </c>
-      <c r="S21" s="3">
-        <v>6.8630000000000004</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U21" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O22" s="3">
-        <v>56.12</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>21.32</v>
-      </c>
-      <c r="S22" s="3">
-        <v>4.1079999999999997</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U22" s="6">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2141,7 @@
   <dimension ref="E6:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,13 +2152,13 @@
   </cols>
   <sheetData>
     <row r="6" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="6" t="s">
         <v>114</v>
       </c>
     </row>
